--- a/test/figure_data/figs_1000.xlsx
+++ b/test/figure_data/figs_1000.xlsx
@@ -5,56 +5,58 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Fall 2022\DIVA_PAPER_REVISIONS\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Spring 2023\DIVA_PLOS_ONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE9F6F-6D5B-42D8-9F43-C47E6EE31619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78171F73-936F-4E79-ADC7-CE9D2E6130EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{D6ACD2C6-78F1-42A1-903D-F76D9DC8E790}"/>
+    <workbookView xWindow="6400" yWindow="1740" windowWidth="19200" windowHeight="11260" xr2:uid="{D6ACD2C6-78F1-42A1-903D-F76D9DC8E790}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Summary_Stats_Condensed" sheetId="13" r:id="rId1"/>
+    <sheet name="Summary_Stats" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="PESQ_T_Test" sheetId="5" r:id="rId5"/>
+    <sheet name="CSIG_T_Test" sheetId="6" r:id="rId6"/>
+    <sheet name="CBAK_T_Test" sheetId="7" r:id="rId7"/>
+    <sheet name="COVL_T_Test" sheetId="8" r:id="rId8"/>
+    <sheet name="SEGSNR_T_Test" sheetId="9" r:id="rId9"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$19:$E$28</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$36:$E$45</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$19:$F$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$36:$F$45</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$E$19:$E$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$36:$E$45</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$19:$D$28</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$36:$D$45</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$19:$E$28</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$36:$E$45</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$19:$F$28</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$36:$F$45</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$19:$G$28</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$36:$G$45</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$19:$C$28</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$36:$C$45</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$19:$F$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$19:$D$28</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$19:$C$28</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$36:$C$45</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$E$19:$E$28</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$E$36:$E$45</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$19:$D$28</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$36:$D$45</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$E$19:$E$28</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$36:$E$45</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$G$19:$G$28</definedName>
     <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$G$36:$G$45</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$36:$C$45</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$36:$F$45</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$19:$D$28</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$36:$D$45</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$F$19:$F$28</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$F$36:$F$45</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$E$19:$E$28</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$E$36:$E$45</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$19:$D$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$36:$D$45</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$19:$C$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$36:$C$45</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$19:$G$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$36:$G$45</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$F$19:$F$28</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$F$36:$F$45</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$36:$D$45</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$19:$G$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$36:$G$45</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$19:$F$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$36:$F$45</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$19:$C$28</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$36:$C$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="134">
   <si>
     <t>orig</t>
   </si>
@@ -285,13 +287,219 @@
   <si>
     <t>Max-Q3</t>
   </si>
+  <si>
+    <t>H_DIVA</t>
+  </si>
+  <si>
+    <t>H_DW</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t_stat</t>
+  </si>
+  <si>
+    <t>p_val</t>
+  </si>
+  <si>
+    <t>SEGSNR</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>hyp: mean diff == 0</t>
+  </si>
+  <si>
+    <t>reject hyp?</t>
+  </si>
+  <si>
+    <t>cohens_D</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>M1-M2</t>
+  </si>
+  <si>
+    <t>Pooled_SD</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>string_rep</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>PESQ_H - PESQ_DW</t>
+  </si>
+  <si>
+    <t>CSIG_H - CSIG_DW</t>
+  </si>
+  <si>
+    <t>CBAK_H - CBAK_DW</t>
+  </si>
+  <si>
+    <t>COVL_H - COVL_DW</t>
+  </si>
+  <si>
+    <t>SEGSNR_H - SEGSNR_DW</t>
+  </si>
+  <si>
+    <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>Std. Error Mean</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Sig. (2-tailed)</t>
+  </si>
+  <si>
+    <t>Cohens_D</t>
+  </si>
+  <si>
+    <t>PESQ_H</t>
+  </si>
+  <si>
+    <t>PESQ_DW</t>
+  </si>
+  <si>
+    <t>CSIG_H</t>
+  </si>
+  <si>
+    <t>CSIG_DW</t>
+  </si>
+  <si>
+    <t>CBAK_H</t>
+  </si>
+  <si>
+    <t>CBAK_DW</t>
+  </si>
+  <si>
+    <t>COVL_H</t>
+  </si>
+  <si>
+    <t>COVL_DW</t>
+  </si>
+  <si>
+    <t>SEGSNR_H</t>
+  </si>
+  <si>
+    <t>SEGSNR_DW</t>
+  </si>
+  <si>
+    <t>Std. Erorr Mean</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>d^2 = (D * D)</t>
+  </si>
+  <si>
+    <t>t-table val</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Samples test for Means</t>
+  </si>
+  <si>
+    <t>hyp: M1-M2 == 0</t>
+  </si>
+  <si>
+    <t>alpha=0.05</t>
+  </si>
+  <si>
+    <t>Group 1: H_DIVA</t>
+  </si>
+  <si>
+    <t>Group 2: H_DW</t>
+  </si>
+  <si>
+    <t>&lt; alpha?</t>
+  </si>
+  <si>
+    <t>Group 1 M (SD)</t>
+  </si>
+  <si>
+    <t>Group 2 M (SD)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -307,7 +515,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -315,12 +523,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,12 +1335,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1232,16 +1497,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
@@ -1290,16 +1554,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -1309,27 +1572,6 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -1344,16 +1586,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -1364,65 +1605,10 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="900" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
-  <cx:printSettings>
-    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
-    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  </cx:printSettings>
 </cx:chartSpace>
 </file>
 
@@ -1431,12 +1617,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1572,12 +1758,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1713,12 +1899,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1995,12 +2181,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2277,12 +2463,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2391,12 +2577,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2505,12 +2691,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2640,16 +2826,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
@@ -2698,16 +2883,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -2717,27 +2901,6 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -2752,16 +2915,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -2772,60 +2934,10 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="900" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -2834,12 +2946,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2855,16 +2967,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
@@ -2913,16 +3024,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -2932,27 +3042,6 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -2967,16 +3056,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -2987,65 +3075,10 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </cx:spPr>
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="900" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -3054,12 +3087,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3075,16 +3108,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
@@ -3133,16 +3165,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -3152,27 +3183,6 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -3187,16 +3197,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -3207,65 +3216,10 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </cx:spPr>
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="900" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -3295,16 +3249,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
@@ -3353,16 +3306,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -3372,27 +3324,6 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -3407,16 +3338,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:defRPr>
+                <a:defRPr/>
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
@@ -3427,60 +3357,10 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="900" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="900" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
-  <cx:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -13307,7 +13187,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665560" cy="6289784"/>
+    <xdr:ext cx="8659091" cy="6276109"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -13341,13 +13221,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228700</xdr:colOff>
+      <xdr:colOff>363520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>313</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361909</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53836</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>121790</xdr:rowOff>
     </xdr:to>
@@ -13385,8 +13265,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2657052" y="181742"/>
-              <a:ext cx="2561560" cy="2661477"/>
+              <a:off x="2801920" y="184150"/>
+              <a:ext cx="2738316" cy="2699890"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13418,14 +13298,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>392576</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53836</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3239</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>528088</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>354728</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>121790</xdr:rowOff>
     </xdr:to>
@@ -13463,8 +13343,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5249279" y="184668"/>
-              <a:ext cx="2563864" cy="2658551"/>
+              <a:off x="5540236" y="184150"/>
+              <a:ext cx="2739292" cy="2699890"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13499,13 +13379,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>65615</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>149279</xdr:rowOff>
+      <xdr:rowOff>109641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>198824</xdr:colOff>
+      <xdr:colOff>363520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>88334</xdr:rowOff>
+      <xdr:rowOff>48696</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -13541,8 +13421,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="65615" y="2870708"/>
-              <a:ext cx="2561561" cy="2660483"/>
+              <a:off x="65615" y="2871891"/>
+              <a:ext cx="2736305" cy="2701305"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13575,15 +13455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228700</xdr:colOff>
+      <xdr:colOff>363520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>153382</xdr:rowOff>
+      <xdr:rowOff>122779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361909</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>52090</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>93743</xdr:rowOff>
+      <xdr:rowOff>63140</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -13619,8 +13499,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2657052" y="2874811"/>
-              <a:ext cx="2561560" cy="2661789"/>
+              <a:off x="2801920" y="2885029"/>
+              <a:ext cx="2736570" cy="2702611"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13653,13 +13533,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>65615</xdr:colOff>
+      <xdr:colOff>62628</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>313</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>198824</xdr:colOff>
+      <xdr:colOff>363520</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>121790</xdr:rowOff>
     </xdr:to>
@@ -13697,8 +13577,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="65615" y="181742"/>
-              <a:ext cx="2561561" cy="2661477"/>
+              <a:off x="62628" y="184150"/>
+              <a:ext cx="2739292" cy="2699890"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14458,615 +14338,652 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87A251D-989D-41BA-A533-61B54CFA9382}">
-  <dimension ref="A12:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC0A478-4B3A-48DD-A3D5-D9FCCB33DE40}">
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P50" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>PESQ_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>PESQ_T_Test!$B$10</f>
+        <v>-2.7724880542446448</v>
+      </c>
+      <c r="D5">
+        <f>PESQ_T_Test!$B$11</f>
+        <v>1.083259817628035E-2</v>
+      </c>
+      <c r="E5">
+        <f>G18</f>
+        <v>-1.2956624653667679</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"t("&amp;B5&amp;") = "&amp;C5&amp;", p = "&amp;D5</f>
+        <v>t(9) = -2.77248805424464, p = 0.0108325981762804</v>
+      </c>
+      <c r="G5" t="b">
+        <f>D5&lt;H5</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f>TRUNC(PESQ_T_Test!$B$4,3)&amp;" ("&amp;TRUNC($C$18,3)&amp;")"</f>
+        <v>1.06 (0.053)</v>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f>TRUNC(PESQ_T_Test!$C$4,3)&amp;" ("&amp;TRUNC($C$19,3)&amp;")"</f>
+        <v>1.622 (0.61)</v>
+      </c>
+      <c r="N5" s="6">
+        <f>PESQ_T_Test!$B$10</f>
+        <v>-2.7724880542446448</v>
+      </c>
+      <c r="O5" s="7">
+        <f>PESQ_T_Test!$B$11</f>
+        <v>1.083259817628035E-2</v>
+      </c>
+      <c r="P5" s="6">
+        <f>$G$18</f>
+        <v>-1.2956624653667679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>CSIG_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f>CSIG_T_Test!$B$10</f>
+        <v>-15.285112262823949</v>
+      </c>
+      <c r="D6">
+        <f>CSIG_T_Test!$B$11</f>
+        <v>4.7890647389422331E-8</v>
+      </c>
+      <c r="E6">
+        <f>G22</f>
+        <v>-5.9422476910444377</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F9" si="0">"t("&amp;B6&amp;") = "&amp;C6&amp;", p = "&amp;D6</f>
+        <v>t(9) = -15.2851122628239, p = 4.78906473894223E-08</v>
+      </c>
+      <c r="G6" t="b">
+        <f>D6&lt;H6</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6" t="str">
+        <f>TRUNC(CSIG_T_Test!$B$4,3)&amp;" ("&amp;TRUNC($C$22,3)&amp;")"</f>
+        <v>-5.543 (1.319)</v>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f>TRUNC(CSIG_T_Test!$C$4,3)&amp;" ("&amp;TRUNC($C$23,3)&amp;")"</f>
+        <v>2.841 (1.497)</v>
+      </c>
+      <c r="N6" s="6">
+        <f>CSIG_T_Test!$B$10</f>
+        <v>-15.285112262823949</v>
+      </c>
+      <c r="O6" s="7">
+        <f>CSIG_T_Test!$B$11</f>
+        <v>4.7890647389422331E-8</v>
+      </c>
+      <c r="P6" s="6">
+        <f>$G$22</f>
+        <v>-5.9422476910444377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>CBAK_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>CBAK_T_Test!$B$10</f>
+        <v>-7.0242085153385494</v>
+      </c>
+      <c r="D7">
+        <f>CBAK_T_Test!$B$11</f>
+        <v>3.0790804997270274E-5</v>
+      </c>
+      <c r="E7">
+        <f>G26</f>
+        <v>-3.1680876707964893</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>t(9) = -7.02420851533855, p = 3.07908049972703E-05</v>
+      </c>
+      <c r="G7" t="b">
+        <f>D7&lt;H7</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f>TRUNC(CBAK_T_Test!$B$4,3)&amp;" ("&amp;TRUNC($C$26,3)&amp;")"</f>
+        <v>-0.372 (0.379)</v>
+      </c>
+      <c r="M7" s="6" t="str">
+        <f>TRUNC(CBAK_T_Test!$C$4,3)&amp;" ("&amp;TRUNC($C$27,3)&amp;")"</f>
+        <v>1.566 (0.778)</v>
+      </c>
+      <c r="N7" s="6">
+        <f>CBAK_T_Test!$B$10</f>
+        <v>-7.0242085153385494</v>
+      </c>
+      <c r="O7" s="7">
+        <f>CBAK_T_Test!$B$11</f>
+        <v>3.0790804997270274E-5</v>
+      </c>
+      <c r="P7" s="6">
+        <f>$G$26</f>
+        <v>-3.1680876707964893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>COVL_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f>COVL_T_Test!$B$10</f>
+        <v>-13.911554798481678</v>
+      </c>
+      <c r="D8">
+        <f>COVL_T_Test!$B$11</f>
+        <v>1.0831176341305306E-7</v>
+      </c>
+      <c r="E8">
+        <f>G30</f>
+        <v>-5.3506517037657622</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>t(9) = -13.9115547984817, p = 1.08311763413053E-07</v>
+      </c>
+      <c r="G8" t="b">
+        <f>D8&lt;H8</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f>TRUNC(COVL_T_Test!$B$4,3)&amp;" ("&amp;TRUNC($C$30,3)&amp;")"</f>
+        <v>-2.974 (0.712)</v>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f>TRUNC(COVL_T_Test!$C$4,3)&amp;" ("&amp;TRUNC($C$31,3)&amp;")"</f>
+        <v>2.111 (1.139)</v>
+      </c>
+      <c r="N8" s="6">
+        <f>COVL_T_Test!$B$10</f>
+        <v>-13.911554798481678</v>
+      </c>
+      <c r="O8" s="7">
+        <f>COVL_T_Test!$B$11</f>
+        <v>1.0831176341305306E-7</v>
+      </c>
+      <c r="P8" s="6">
+        <f>$G$30</f>
+        <v>-5.3506517037657622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <f>SEGSNR_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f>SEGSNR_T_Test!$B$10</f>
+        <v>3.1521454705531422</v>
+      </c>
+      <c r="D9">
+        <f>SEGSNR_T_Test!$B$11</f>
+        <v>5.8485478832168659E-3</v>
+      </c>
+      <c r="E9">
+        <f>G34</f>
+        <v>0.37004126215608313</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>t(9) = 3.15214547055314, p = 0.00584854788321687</v>
+      </c>
+      <c r="G9" t="b">
+        <f>D9&lt;H9</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>TRUNC(SEGSNR_T_Test!$B$4,3)&amp;" ("&amp;TRUNC($C$34,3)&amp;")"</f>
+        <v>-4.347 (3.471)</v>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f>TRUNC(SEGSNR_T_Test!$C$4,3)&amp;" ("&amp;TRUNC($C$35,3)&amp;")"</f>
+        <v>-5.573 (3.147)</v>
+      </c>
+      <c r="N9" s="6">
+        <f>SEGSNR_T_Test!$B$10</f>
+        <v>3.1521454705531422</v>
+      </c>
+      <c r="O9" s="7">
+        <f>SEGSNR_T_Test!$B$11</f>
+        <v>5.8485478832168659E-3</v>
+      </c>
+      <c r="P9" s="6">
+        <f>$G$34</f>
+        <v>0.37004126215608313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(Sheet1!A$53:A$62)</f>
+        <v>1.0606789112091031</v>
+      </c>
+      <c r="C18">
+        <f>STDEV(Sheet1!A$53:A$62)</f>
+        <v>5.3072077297658761E-2</v>
+      </c>
+      <c r="D18">
+        <f>COUNT(Sheet1!A$53:A$62)</f>
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>B18-B19</f>
+        <v>-0.5616531133651721</v>
+      </c>
+      <c r="F18">
+        <f>SQRT(((D18-1)*C18^2+(D19-1)*C19^2)/(D18+D19-2))</f>
+        <v>0.4334872147478494</v>
+      </c>
+      <c r="G18">
+        <f>E18/F18</f>
+        <v>-1.2956624653667679</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(Sheet1!B$53:B$62)</f>
+        <v>1.6223320245742752</v>
+      </c>
+      <c r="C19">
+        <f>STDEV(Sheet1!B$53:B$62)</f>
+        <v>0.6107419138318636</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(Sheet1!A$66:A$75)</f>
+        <v>-5.5437705663977477</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.STDEV.S(Sheet1!A$66:A$75)</f>
+        <v>1.3195235314601432</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f>B22-B23</f>
+        <v>-8.3851599208015681</v>
+      </c>
+      <c r="F22">
+        <f>SQRT(((D22-1)*C22^2+(D23-1)*C23^2)/(D22+D23-2))</f>
+        <v>1.4111091217955865</v>
+      </c>
+      <c r="G22">
+        <f>E22/F22</f>
+        <v>-5.9422476910444377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(Sheet1!B$66:B$75)</f>
+        <v>2.84138935440382</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.STDEV.S(Sheet1!B$66:B$75)</f>
+        <v>1.4971023869970865</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(Sheet1!A$79:A$88)</f>
+        <v>-0.37254973445507539</v>
+      </c>
+      <c r="C26">
+        <f>_xlfn.STDEV.S(Sheet1!A$79:A$88)</f>
+        <v>0.3795240830711098</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f>B26-B27</f>
+        <v>-1.9395345155127259</v>
+      </c>
+      <c r="F26">
+        <f>SQRT(((D26-1)*C26^2+(D27-1)*C27^2)/(D26+D27-2))</f>
+        <v>0.61220986192756066</v>
+      </c>
+      <c r="G26">
+        <f>E26/F26</f>
+        <v>-3.1680876707964893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(Sheet1!B$79:B$88)</f>
+        <v>1.5669847810576505</v>
+      </c>
+      <c r="C27">
+        <f>_xlfn.STDEV.S(Sheet1!B$79:B$88)</f>
+        <v>0.77817947830289069</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>1.1649534702301001</v>
-      </c>
-      <c r="D19">
-        <v>-5.2916111306662597</v>
-      </c>
-      <c r="E19">
-        <v>0.14327469204506399</v>
-      </c>
-      <c r="F19">
-        <v>-2.6935284978154601</v>
-      </c>
-      <c r="G19">
-        <v>-1.48997447291656</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1.0170973539352399</v>
-      </c>
-      <c r="D20">
-        <v>-3.7281885875022001</v>
-      </c>
-      <c r="E20">
-        <v>-1.02258132003219</v>
-      </c>
-      <c r="F20">
-        <v>-2.4143575199847298</v>
-      </c>
-      <c r="G20">
-        <v>-0.18923058732995801</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>1.02004194259643</v>
-      </c>
-      <c r="D21">
-        <v>-5.9958246166256899</v>
-      </c>
-      <c r="E21">
-        <v>-0.37143362921144002</v>
-      </c>
-      <c r="F21">
-        <v>-3.18942616313453</v>
-      </c>
-      <c r="G21">
-        <v>-5.37381686695415</v>
-      </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>1.04181921482086</v>
-      </c>
-      <c r="D22">
-        <v>-5.9441518735413901</v>
-      </c>
-      <c r="E22">
-        <v>-0.48580712164574502</v>
-      </c>
-      <c r="F22">
-        <v>-3.2579575159363601</v>
-      </c>
-      <c r="G22">
-        <v>-2.71776797658748</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>1.03576695919036</v>
-      </c>
-      <c r="D23">
-        <v>-4.2420097201490199</v>
-      </c>
-      <c r="E23">
-        <v>0.26583182928548299</v>
-      </c>
-      <c r="F23">
-        <v>-1.9769621125339301</v>
-      </c>
-      <c r="G23">
-        <v>-10</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>1.0438812971115099</v>
-      </c>
-      <c r="D24">
-        <v>-6.9908503438442597</v>
-      </c>
-      <c r="E24">
-        <v>-0.55445087467799203</v>
-      </c>
-      <c r="F24">
-        <v>-3.7459694301011601</v>
-      </c>
-      <c r="G24">
-        <v>-5.2220070861728001</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>1.01616966724395</v>
-      </c>
-      <c r="D25">
-        <v>-5.9730433287276101</v>
-      </c>
-      <c r="E25">
-        <v>-0.33239700981614401</v>
-      </c>
-      <c r="F25">
-        <v>-3.2594613914328301</v>
-      </c>
-      <c r="G25">
-        <v>-1.22584832063654</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>1.0349143743514999</v>
-      </c>
-      <c r="D26">
-        <v>-3.4719004254064001</v>
-      </c>
-      <c r="E26">
-        <v>-0.35472557975236202</v>
-      </c>
-      <c r="F26">
-        <v>-1.81762826339114</v>
-      </c>
-      <c r="G26">
-        <v>-10</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>1.0950285196304299</v>
-      </c>
-      <c r="D27">
-        <v>-6.9235284935333397</v>
-      </c>
-      <c r="E27">
-        <v>-0.26534474525601198</v>
-      </c>
-      <c r="F27">
-        <v>-3.6589582954833899</v>
-      </c>
-      <c r="G27">
-        <v>-2.2409195952792098</v>
-      </c>
-      <c r="H27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>1.1371163129806501</v>
-      </c>
-      <c r="D28">
-        <v>-6.8765971439813001</v>
-      </c>
-      <c r="E28">
-        <v>-0.74786358548941601</v>
-      </c>
-      <c r="F28">
-        <v>-3.7324338673885502</v>
-      </c>
-      <c r="G28">
-        <v>-5.0167805942909798</v>
-      </c>
-      <c r="H28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(Sheet1!A$92:A$101)</f>
+        <v>-2.9746683057202081</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.STDEV.S(Sheet1!A$92:A$101)</f>
+        <v>0.71274077820941673</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <f>B30-B31</f>
+        <v>-5.0856791429454429</v>
+      </c>
+      <c r="F30">
+        <f>SQRT(((D30-1)*C30^2+(D31-1)*C31^2)/(D30+D31-2))</f>
+        <v>0.95047845094573569</v>
+      </c>
+      <c r="G30">
+        <f>E30/F30</f>
+        <v>-5.3506517037657622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(Sheet1!B$92:B$101)</f>
+        <v>2.1110108372252352</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.STDEV.S(Sheet1!B$92:B$101)</f>
+        <v>1.1396574724459299</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(Sheet1!A$105:A$114)</f>
+        <v>-4.3476345500167684</v>
+      </c>
+      <c r="C34">
+        <f>_xlfn.STDEV.S(Sheet1!A$105:A$114)</f>
+        <v>3.4715128164223503</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f>B34-B35</f>
+        <v>1.2260555586082429</v>
+      </c>
+      <c r="F34">
+        <f>SQRT(((D34-1)*C34^2+(D35-1)*C35^2)/(D34+D35-2))</f>
+        <v>3.3132941755319534</v>
+      </c>
+      <c r="G34">
+        <f>E34/F34</f>
+        <v>0.37004126215608313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>1.1640433073043801</v>
-      </c>
-      <c r="D36">
-        <v>2.8916979225823898</v>
-      </c>
-      <c r="E36">
-        <v>1.8511949235684999</v>
-      </c>
-      <c r="F36">
-        <v>2.0138911134900601</v>
-      </c>
-      <c r="G36">
-        <v>-2.3994911828665999</v>
-      </c>
-      <c r="H36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <f>AVERAGE(Sheet1!B$105:B$114)</f>
+        <v>-5.5736901086250112</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.STDEV.S(Sheet1!B$105:B$114)</f>
+        <v>3.1471312893877332</v>
+      </c>
+      <c r="D35">
         <v>10</v>
-      </c>
-      <c r="C37">
-        <v>2.4075438976287802</v>
-      </c>
-      <c r="D37">
-        <v>3.9031169936488301</v>
-      </c>
-      <c r="E37">
-        <v>2.4801029667692198</v>
-      </c>
-      <c r="F37">
-        <v>3.1567492026444399</v>
-      </c>
-      <c r="G37">
-        <v>-2.3663161083961102</v>
-      </c>
-      <c r="H37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>1.5966837406158401</v>
-      </c>
-      <c r="D38">
-        <v>3.1397316949916201</v>
-      </c>
-      <c r="E38">
-        <v>1.60438960539831</v>
-      </c>
-      <c r="F38">
-        <v>2.2509969332909199</v>
-      </c>
-      <c r="G38">
-        <v>-4.9832417401573403</v>
-      </c>
-      <c r="H38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>1.0577983856201101</v>
-      </c>
-      <c r="D39">
-        <v>-1.3138012176971601</v>
-      </c>
-      <c r="E39">
-        <v>-0.31941855456554602</v>
-      </c>
-      <c r="F39">
-        <v>-0.86596151671317501</v>
-      </c>
-      <c r="G39">
-        <v>-3.72270651417859</v>
-      </c>
-      <c r="H39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40">
-        <v>1.2931698560714699</v>
-      </c>
-      <c r="D40">
-        <v>3.2966292493662399</v>
-      </c>
-      <c r="E40">
-        <v>1.4759323241504601</v>
-      </c>
-      <c r="F40">
-        <v>2.2956534305058298</v>
-      </c>
-      <c r="G40">
-        <v>-10</v>
-      </c>
-      <c r="H40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41">
-        <v>1.1454170942306501</v>
-      </c>
-      <c r="D41">
-        <v>3.02388898522636</v>
-      </c>
-      <c r="E41">
-        <v>1.3810066075107801</v>
-      </c>
-      <c r="F41">
-        <v>2.0304765325071901</v>
-      </c>
-      <c r="G41">
-        <v>-7.9686564244399198</v>
-      </c>
-      <c r="H41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <v>2.8621480464935298</v>
-      </c>
-      <c r="D42">
-        <v>3.6509302554121001</v>
-      </c>
-      <c r="E42">
-        <v>2.4006538171453098</v>
-      </c>
-      <c r="F42">
-        <v>3.1701423801221198</v>
-      </c>
-      <c r="G42">
-        <v>-3.08111901060325</v>
-      </c>
-      <c r="H42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43">
-        <v>2.0091447830200102</v>
-      </c>
-      <c r="D43">
-        <v>3.6275648656650601</v>
-      </c>
-      <c r="E43">
-        <v>1.7824127253167199</v>
-      </c>
-      <c r="F43">
-        <v>2.8089779538187298</v>
-      </c>
-      <c r="G43">
-        <v>-10</v>
-      </c>
-      <c r="H43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44">
-        <v>1.4726384878158501</v>
-      </c>
-      <c r="D44">
-        <v>3.2431944555721901</v>
-      </c>
-      <c r="E44">
-        <v>1.8101458099247101</v>
-      </c>
-      <c r="F44">
-        <v>2.28973608375138</v>
-      </c>
-      <c r="G44">
-        <v>-2.9745464617483601</v>
-      </c>
-      <c r="H44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45">
-        <v>1.21473264694213</v>
-      </c>
-      <c r="D45">
-        <v>2.95094033927057</v>
-      </c>
-      <c r="E45">
-        <v>1.2034275853580401</v>
-      </c>
-      <c r="F45">
-        <v>1.95944625883486</v>
-      </c>
-      <c r="G45">
-        <v>-8.2408236438599403</v>
-      </c>
-      <c r="H45" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01063780-B23D-42BF-9755-C58266310711}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15078,7 +14995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DCA392-F3D2-4957-9C49-E22D0479DEF7}">
   <dimension ref="A11:W98"/>
   <sheetViews>
@@ -16957,4 +16874,3762 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5E91B2-E1F9-468A-B6D2-AFF0BF1E21EA}">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="7.6328125" customWidth="1"/>
+    <col min="14" max="14" width="4.54296875" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>PESQ_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>PESQ_T_Test!$B$10</f>
+        <v>-2.7724880542446448</v>
+      </c>
+      <c r="D5">
+        <f>PESQ_T_Test!$B$11</f>
+        <v>1.083259817628035E-2</v>
+      </c>
+      <c r="E5">
+        <f>G18</f>
+        <v>-1.2956624653667679</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"t("&amp;B5&amp;") = "&amp;C5&amp;", p = "&amp;D5</f>
+        <v>t(9) = -2.77248805424464, p = 0.0108325981762804</v>
+      </c>
+      <c r="G5" t="b">
+        <f>D5&lt;H5</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <f>PESQ_T_Test!B4</f>
+        <v>1.0606789112091031</v>
+      </c>
+      <c r="M5" s="6">
+        <f>PESQ_T_Test!C4</f>
+        <v>1.6223320245742752</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9</v>
+      </c>
+      <c r="O5" s="6">
+        <f>PESQ_T_Test!$B$10</f>
+        <v>-2.7724880542446448</v>
+      </c>
+      <c r="P5" s="4">
+        <f>PESQ_T_Test!B13</f>
+        <v>2.1665196352560701E-2</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>PESQ_T_Test!B14</f>
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="R5" s="4">
+        <f>PESQ_T_Test!$B$11</f>
+        <v>1.083259817628035E-2</v>
+      </c>
+      <c r="S5" s="6">
+        <f>G18</f>
+        <v>-1.2956624653667679</v>
+      </c>
+      <c r="T5" s="4" t="b">
+        <f>P5&lt;0.05</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>CSIG_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f>CSIG_T_Test!$B$10</f>
+        <v>-15.285112262823949</v>
+      </c>
+      <c r="D6">
+        <f>CSIG_T_Test!$B$11</f>
+        <v>4.7890647389422331E-8</v>
+      </c>
+      <c r="E6">
+        <f>G22</f>
+        <v>-5.9422476910444377</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F9" si="0">"t("&amp;B6&amp;") = "&amp;C6&amp;", p = "&amp;D6</f>
+        <v>t(9) = -15.2851122628239, p = 4.78906473894223E-08</v>
+      </c>
+      <c r="G6" t="b">
+        <f>D6&lt;H6</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
+        <f>CSIG_T_Test!B4</f>
+        <v>-5.5437705663977477</v>
+      </c>
+      <c r="M6" s="6">
+        <f>CSIG_T_Test!C4</f>
+        <v>2.84138935440382</v>
+      </c>
+      <c r="N6" s="4">
+        <v>9</v>
+      </c>
+      <c r="O6" s="6">
+        <f>CSIG_T_Test!$B$10</f>
+        <v>-15.285112262823949</v>
+      </c>
+      <c r="P6" s="4">
+        <f>CSIG_T_Test!B13</f>
+        <v>9.5781294778844661E-8</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>CSIG_T_Test!B14</f>
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="R6" s="4">
+        <f>CSIG_T_Test!$B$11</f>
+        <v>4.7890647389422331E-8</v>
+      </c>
+      <c r="S6" s="6">
+        <f>G22</f>
+        <v>-5.9422476910444377</v>
+      </c>
+      <c r="T6" s="4" t="b">
+        <f t="shared" ref="T6:T9" si="1">P6&lt;0.05</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>CBAK_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>CBAK_T_Test!$B$10</f>
+        <v>-7.0242085153385494</v>
+      </c>
+      <c r="D7">
+        <f>CBAK_T_Test!$B$11</f>
+        <v>3.0790804997270274E-5</v>
+      </c>
+      <c r="E7">
+        <f>G26</f>
+        <v>-3.1680876707964893</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>t(9) = -7.02420851533855, p = 3.07908049972703E-05</v>
+      </c>
+      <c r="G7" t="b">
+        <f>D7&lt;H7</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6">
+        <f>CBAK_T_Test!B4</f>
+        <v>-0.37254973445507539</v>
+      </c>
+      <c r="M7" s="6">
+        <f>CBAK_T_Test!C4</f>
+        <v>1.5669847810576505</v>
+      </c>
+      <c r="N7" s="4">
+        <v>9</v>
+      </c>
+      <c r="O7" s="6">
+        <f>CBAK_T_Test!$B$10</f>
+        <v>-7.0242085153385494</v>
+      </c>
+      <c r="P7" s="4">
+        <f>CBAK_T_Test!B13</f>
+        <v>6.1581609994540548E-5</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>CBAK_T_Test!B14</f>
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="R7" s="4">
+        <f>CBAK_T_Test!$B$11</f>
+        <v>3.0790804997270274E-5</v>
+      </c>
+      <c r="S7" s="6">
+        <f>G26</f>
+        <v>-3.1680876707964893</v>
+      </c>
+      <c r="T7" s="4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>COVL_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f>COVL_T_Test!$B$10</f>
+        <v>-13.911554798481678</v>
+      </c>
+      <c r="D8">
+        <f>COVL_T_Test!$B$11</f>
+        <v>1.0831176341305306E-7</v>
+      </c>
+      <c r="E8">
+        <f>G30</f>
+        <v>-5.3506517037657622</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>t(9) = -13.9115547984817, p = 1.08311763413053E-07</v>
+      </c>
+      <c r="G8" t="b">
+        <f>D8&lt;H8</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6">
+        <f>COVL_T_Test!B4</f>
+        <v>-2.9746683057202081</v>
+      </c>
+      <c r="M8" s="6">
+        <f>COVL_T_Test!C4</f>
+        <v>2.1110108372252352</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9</v>
+      </c>
+      <c r="O8" s="6">
+        <f>COVL_T_Test!$B$10</f>
+        <v>-13.911554798481678</v>
+      </c>
+      <c r="P8" s="4">
+        <f>COVL_T_Test!B13</f>
+        <v>2.1662352682610612E-7</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>COVL_T_Test!B14</f>
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="R8" s="4">
+        <f>COVL_T_Test!$B$11</f>
+        <v>1.0831176341305306E-7</v>
+      </c>
+      <c r="S8" s="6">
+        <f>G30</f>
+        <v>-5.3506517037657622</v>
+      </c>
+      <c r="T8" s="4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <f>SEGSNR_T_Test!$B$9</f>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f>SEGSNR_T_Test!$B$10</f>
+        <v>3.1521454705531422</v>
+      </c>
+      <c r="D9">
+        <f>SEGSNR_T_Test!$B$11</f>
+        <v>5.8485478832168659E-3</v>
+      </c>
+      <c r="E9">
+        <f>G34</f>
+        <v>0.37004126215608313</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>t(9) = 3.15214547055314, p = 0.00584854788321687</v>
+      </c>
+      <c r="G9" t="b">
+        <f>D9&lt;H9</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="6">
+        <f>SEGSNR_T_Test!B4</f>
+        <v>-4.3476345500167684</v>
+      </c>
+      <c r="M9" s="6">
+        <f>SEGSNR_T_Test!C4</f>
+        <v>-5.5736901086250112</v>
+      </c>
+      <c r="N9" s="4">
+        <v>9</v>
+      </c>
+      <c r="O9" s="6">
+        <f>SEGSNR_T_Test!$B$10</f>
+        <v>3.1521454705531422</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SEGSNR_T_Test!B13</f>
+        <v>1.1697095766433732E-2</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>SEGSNR_T_Test!B14</f>
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SEGSNR_T_Test!$B$11</f>
+        <v>5.8485478832168659E-3</v>
+      </c>
+      <c r="S9" s="6">
+        <f>G34</f>
+        <v>0.37004126215608313</v>
+      </c>
+      <c r="T9" s="4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(Sheet1!A$53:A$62)</f>
+        <v>1.0606789112091031</v>
+      </c>
+      <c r="C18">
+        <f>STDEV(Sheet1!A$53:A$62)</f>
+        <v>5.3072077297658761E-2</v>
+      </c>
+      <c r="D18">
+        <f>COUNT(Sheet1!A$53:A$62)</f>
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>B18-B19</f>
+        <v>-0.5616531133651721</v>
+      </c>
+      <c r="F18">
+        <f>SQRT(((D18-1)*C18^2+(D19-1)*C19^2)/(D18+D19-2))</f>
+        <v>0.4334872147478494</v>
+      </c>
+      <c r="G18">
+        <f>E18/F18</f>
+        <v>-1.2956624653667679</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(Sheet1!B$53:B$62)</f>
+        <v>1.6223320245742752</v>
+      </c>
+      <c r="C19">
+        <f>STDEV(Sheet1!B$53:B$62)</f>
+        <v>0.6107419138318636</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(Sheet1!A$66:A$75)</f>
+        <v>-5.5437705663977477</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.STDEV.S(Sheet1!A$66:A$75)</f>
+        <v>1.3195235314601432</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f>B22-B23</f>
+        <v>-8.3851599208015681</v>
+      </c>
+      <c r="F22">
+        <f>SQRT(((D22-1)*C22^2+(D23-1)*C23^2)/(D22+D23-2))</f>
+        <v>1.4111091217955865</v>
+      </c>
+      <c r="G22">
+        <f>E22/F22</f>
+        <v>-5.9422476910444377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(Sheet1!B$66:B$75)</f>
+        <v>2.84138935440382</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.STDEV.S(Sheet1!B$66:B$75)</f>
+        <v>1.4971023869970865</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(Sheet1!A$79:A$88)</f>
+        <v>-0.37254973445507539</v>
+      </c>
+      <c r="C26">
+        <f>_xlfn.STDEV.S(Sheet1!A$79:A$88)</f>
+        <v>0.3795240830711098</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f>B26-B27</f>
+        <v>-1.9395345155127259</v>
+      </c>
+      <c r="F26">
+        <f>SQRT(((D26-1)*C26^2+(D27-1)*C27^2)/(D26+D27-2))</f>
+        <v>0.61220986192756066</v>
+      </c>
+      <c r="G26">
+        <f>E26/F26</f>
+        <v>-3.1680876707964893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(Sheet1!B$79:B$88)</f>
+        <v>1.5669847810576505</v>
+      </c>
+      <c r="C27">
+        <f>_xlfn.STDEV.S(Sheet1!B$79:B$88)</f>
+        <v>0.77817947830289069</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(Sheet1!A$92:A$101)</f>
+        <v>-2.9746683057202081</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.STDEV.S(Sheet1!A$92:A$101)</f>
+        <v>0.71274077820941673</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <f>B30-B31</f>
+        <v>-5.0856791429454429</v>
+      </c>
+      <c r="F30">
+        <f>SQRT(((D30-1)*C30^2+(D31-1)*C31^2)/(D30+D31-2))</f>
+        <v>0.95047845094573569</v>
+      </c>
+      <c r="G30">
+        <f>E30/F30</f>
+        <v>-5.3506517037657622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(Sheet1!B$92:B$101)</f>
+        <v>2.1110108372252352</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.STDEV.S(Sheet1!B$92:B$101)</f>
+        <v>1.1396574724459299</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(Sheet1!A$105:A$114)</f>
+        <v>-4.3476345500167684</v>
+      </c>
+      <c r="C34">
+        <f>_xlfn.STDEV.S(Sheet1!A$105:A$114)</f>
+        <v>3.4715128164223503</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f>B34-B35</f>
+        <v>1.2260555586082429</v>
+      </c>
+      <c r="F34">
+        <f>SQRT(((D34-1)*C34^2+(D35-1)*C35^2)/(D34+D35-2))</f>
+        <v>3.3132941755319534</v>
+      </c>
+      <c r="G34">
+        <f>E34/F34</f>
+        <v>0.37004126215608313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <f>AVERAGE(Sheet1!B$105:B$114)</f>
+        <v>-5.5736901086250112</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.STDEV.S(Sheet1!B$105:B$114)</f>
+        <v>3.1471312893877332</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73DEBEB-C2BC-48AA-95CC-98885981BE34}">
+  <dimension ref="A2:K82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <f>PESQ_T_Test!B4</f>
+        <v>1.0606789112091031</v>
+      </c>
+      <c r="D3">
+        <f>Summary_Stats!C18</f>
+        <v>5.3072077297658761E-2</v>
+      </c>
+      <c r="E3">
+        <f>D3/SQRT(10)</f>
+        <v>1.6782864441711572E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <f>PESQ_T_Test!C4</f>
+        <v>1.6223320245742752</v>
+      </c>
+      <c r="D4">
+        <f>Summary_Stats!C19</f>
+        <v>0.6107419138318636</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="0">D4/SQRT(10)</f>
+        <v>0.19313355102389834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <f>CSIG_T_Test!B4</f>
+        <v>-5.5437705663977477</v>
+      </c>
+      <c r="D5">
+        <f>Summary_Stats!C22</f>
+        <v>1.3195235314601432</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.41726997856028986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <f>CSIG_T_Test!C4</f>
+        <v>2.84138935440382</v>
+      </c>
+      <c r="D6">
+        <f>Summary_Stats!C23</f>
+        <v>1.4971023869970865</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.47342534333856423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7">
+        <f>CBAK_T_Test!B4</f>
+        <v>-0.37254973445507539</v>
+      </c>
+      <c r="D7">
+        <f>Summary_Stats!C26</f>
+        <v>0.3795240830711098</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.12001605293916587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8">
+        <f>CBAK_T_Test!C4</f>
+        <v>1.5669847810576505</v>
+      </c>
+      <c r="D8">
+        <f>Summary_Stats!C27</f>
+        <v>0.77817947830289069</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.2460819579838715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <f>COVL_T_Test!B4</f>
+        <v>-2.9746683057202081</v>
+      </c>
+      <c r="D9">
+        <f>Summary_Stats!C30</f>
+        <v>0.71274077820941673</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.22538842404226639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <f>COVL_T_Test!C4</f>
+        <v>2.1110108372252352</v>
+      </c>
+      <c r="D10">
+        <f>Summary_Stats!C31</f>
+        <v>1.1396574724459299</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.36039133653597238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <f>SEGSNR_T_Test!B4</f>
+        <v>-4.3476345500167684</v>
+      </c>
+      <c r="D11">
+        <f>Summary_Stats!C34</f>
+        <v>3.4715128164223503</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.0977887426360611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <f>SEGSNR_T_Test!C4</f>
+        <v>-5.5736901086250112</v>
+      </c>
+      <c r="D12">
+        <f>Summary_Stats!C35</f>
+        <v>3.1471312893877332</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.99521029700477348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <f>C3-C4</f>
+        <v>-0.5616531133651721</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.STDEV.S(D25:D34)</f>
+        <v>0.64061704087038729</v>
+      </c>
+      <c r="E15">
+        <f>D15/SQRT(10)</f>
+        <v>0.20258089570675991</v>
+      </c>
+      <c r="F15">
+        <f>C15-(G21*Summary_Stats!F18*SQRT(2/10))</f>
+        <v>-0.9689558641534437</v>
+      </c>
+      <c r="G15">
+        <f>C15+(G21*Summary_Stats!F18*SQRT(2/10))</f>
+        <v>-0.15435036257690044</v>
+      </c>
+      <c r="H15">
+        <f>C15/D15/SQRT(10)</f>
+        <v>-0.2772488054244644</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <f>C5-C6</f>
+        <v>-8.3851599208015681</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.STDEV.S(D37:D46)</f>
+        <v>1.7347732511577345</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E19" si="1">D16/SQRT(10)</f>
+        <v>0.54858346975937722</v>
+      </c>
+      <c r="F16">
+        <f>C16-($G$21*Summary_Stats!F22*SQRT(2/10))</f>
+        <v>-9.7110320743876528</v>
+      </c>
+      <c r="G16">
+        <f>C16+($G$21*Summary_Stats!F22*SQRT(2/10))</f>
+        <v>-7.0592877672154835</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H19" si="2">C16/D16/SQRT(10)</f>
+        <v>-1.5285112262823948</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17">
+        <f>C7-C8</f>
+        <v>-1.9395345155127259</v>
+      </c>
+      <c r="D17">
+        <f>_xlfn.STDEV.S(D49:D58)</f>
+        <v>0.87317263662349842</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.27612143222648111</v>
+      </c>
+      <c r="F17">
+        <f>C17-($G$21*Summary_Stats!F26*SQRT(2/10))</f>
+        <v>-2.5147643085479094</v>
+      </c>
+      <c r="G17">
+        <f>C17+($G$21*Summary_Stats!F26*SQRT(2/10))</f>
+        <v>-1.3643047224775426</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-0.70242085153385536</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <f>C9-C10</f>
+        <v>-5.0856791429454429</v>
+      </c>
+      <c r="D18">
+        <f>_xlfn.STDEV.S(D61:D70)</f>
+        <v>1.1560411308070244</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.36557230421868442</v>
+      </c>
+      <c r="F18">
+        <f>C18-($G$21*Summary_Stats!F30*SQRT(2/10))</f>
+        <v>-5.9787446693655486</v>
+      </c>
+      <c r="G18">
+        <f>C18+($G$21*Summary_Stats!F30*SQRT(2/10))</f>
+        <v>-4.1926136165253372</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>-1.3911554798481676</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19">
+        <f>C11-C12</f>
+        <v>1.2260555586082429</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.STDEV.S(D73:D82)</f>
+        <v>1.2299965656190825</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.38895906615410547</v>
+      </c>
+      <c r="F19">
+        <f>C19-($G$21*Summary_Stats!F34*SQRT(2/10))</f>
+        <v>-1.8871016140892443</v>
+      </c>
+      <c r="G19">
+        <f>C19+($G$21*Summary_Stats!F34*SQRT(2/10))</f>
+        <v>4.3392127313057305</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.31521454705531404</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21">
+        <v>2.101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1.1649534702301001</v>
+      </c>
+      <c r="C25">
+        <v>1.1640433073043801</v>
+      </c>
+      <c r="D25">
+        <f>B25-C25</f>
+        <v>9.101629257199928E-4</v>
+      </c>
+      <c r="E25">
+        <f>D25^2</f>
+        <v>8.2839655135517708E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1.0170973539352399</v>
+      </c>
+      <c r="C26">
+        <v>2.4075438976287802</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D34" si="3">B26-C26</f>
+        <v>-1.3904465436935403</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E34" si="4">D26^2</f>
+        <v>1.9333415908693121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1.02004194259643</v>
+      </c>
+      <c r="C27">
+        <v>1.5966837406158401</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>-0.57664179801941007</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>0.33251576322305809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>1.04181921482086</v>
+      </c>
+      <c r="C28">
+        <v>1.0577983856201101</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>-1.5979170799250042E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>2.5533389943160521E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1.03576695919036</v>
+      </c>
+      <c r="C29">
+        <v>1.2931698560714699</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>-0.25740289688110995</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>6.6256251322787327E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>1.0438812971115099</v>
+      </c>
+      <c r="C30">
+        <v>1.1454170942306501</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>-0.10153579711914018</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>1.0309518096619195E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1.01616966724395</v>
+      </c>
+      <c r="C31">
+        <v>2.8621480464935298</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>-1.8459783792495799</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>3.4076361766569057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>1.0349143743514999</v>
+      </c>
+      <c r="C32">
+        <v>2.0091447830200102</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>-0.97423040866851029</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>0.94912488917441262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>1.0950285196304299</v>
+      </c>
+      <c r="C33">
+        <v>1.4726384878158501</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>-0.37760996818542014</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>0.14258928807299401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1.1371163129806501</v>
+      </c>
+      <c r="C34">
+        <v>1.21473264694213</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>-7.7616333961479933E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>6.0242952976199832E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>-5.2916111306662597</v>
+      </c>
+      <c r="C37">
+        <v>2.8916979225823898</v>
+      </c>
+      <c r="D37">
+        <f>B37-C37</f>
+        <v>-8.1833090532486494</v>
+      </c>
+      <c r="E37">
+        <f>D37^2</f>
+        <v>66.966547060981313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>-3.7281885875022001</v>
+      </c>
+      <c r="C38">
+        <v>3.9031169936488301</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D46" si="5">B38-C38</f>
+        <v>-7.6313055811510306</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E46" si="6">D38^2</f>
+        <v>58.236824872906872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>-5.9958246166256899</v>
+      </c>
+      <c r="C39">
+        <v>3.1397316949916201</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>-9.1355563116173109</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>83.458389122730878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>-5.9441518735413901</v>
+      </c>
+      <c r="C40">
+        <v>-1.3138012176971601</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>-4.6303506558442304</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>21.440147196077096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>-4.2420097201490199</v>
+      </c>
+      <c r="C41">
+        <v>3.2966292493662399</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>-7.5386389695152598</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>56.831077512694101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>-6.9908503438442597</v>
+      </c>
+      <c r="C42">
+        <v>3.02388898522636</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>-10.01473932907062</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>100.29500382923385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>-5.9730433287276101</v>
+      </c>
+      <c r="C43">
+        <v>3.6509302554121001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>-9.6239735841397103</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>92.620867548218939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>-3.4719004254064001</v>
+      </c>
+      <c r="C44">
+        <v>3.6275648656650601</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>-7.0994652910714606</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>50.40240741912838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>-6.9235284935333397</v>
+      </c>
+      <c r="C45">
+        <v>3.2431944555721901</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>-10.16672294910553</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>103.36225552386905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>-6.8765971439813001</v>
+      </c>
+      <c r="C46">
+        <v>2.95094033927057</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>-9.82753748325187</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>96.580492984720493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0.14327469204506399</v>
+      </c>
+      <c r="C49">
+        <v>1.8511949235684999</v>
+      </c>
+      <c r="D49">
+        <f>B49-C49</f>
+        <v>-1.7079202315234359</v>
+      </c>
+      <c r="E49">
+        <f>D49^2</f>
+        <v>2.9169915172470668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>-1.02258132003219</v>
+      </c>
+      <c r="C50">
+        <v>2.4801029667692198</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:D58" si="7">B50-C50</f>
+        <v>-3.5026842868014096</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:E58" si="8">D50^2</f>
+        <v>12.268797213005501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>-0.37143362921144002</v>
+      </c>
+      <c r="C51">
+        <v>1.60438960539831</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="7"/>
+        <v>-1.97582323460975</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="8"/>
+        <v>3.9038774544237351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>-0.48580712164574502</v>
+      </c>
+      <c r="C52">
+        <v>-0.31941855456554602</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="7"/>
+        <v>-0.166388567080199</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="8"/>
+        <v>2.7685155255001884E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0.26583182928548299</v>
+      </c>
+      <c r="C53">
+        <v>1.4759323241504601</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="7"/>
+        <v>-1.2101004948649772</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="8"/>
+        <v>1.4643432076724627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>-0.55445087467799203</v>
+      </c>
+      <c r="C54">
+        <v>1.3810066075107801</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="7"/>
+        <v>-1.935457482188772</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="8"/>
+        <v>3.7459956653605007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>-0.33239700981614401</v>
+      </c>
+      <c r="C55">
+        <v>2.4006538171453098</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="7"/>
+        <v>-2.733050826961454</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="8"/>
+        <v>7.469566822754687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>-0.35472557975236202</v>
+      </c>
+      <c r="C56">
+        <v>1.7824127253167199</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="7"/>
+        <v>-2.1371383050690818</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="8"/>
+        <v>4.5673601349935478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>-0.26534474525601198</v>
+      </c>
+      <c r="C57">
+        <v>1.8101458099247101</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="7"/>
+        <v>-2.0754905551807221</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="8"/>
+        <v>4.3076610446443819</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>-0.74786358548941601</v>
+      </c>
+      <c r="C58">
+        <v>1.2034275853580401</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="7"/>
+        <v>-1.9512911708474561</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="8"/>
+        <v>3.8075372334272362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>-2.6935284978154601</v>
+      </c>
+      <c r="C61">
+        <v>2.0138911134900601</v>
+      </c>
+      <c r="D61">
+        <f>B61-C61</f>
+        <v>-4.7074196113055198</v>
+      </c>
+      <c r="E61">
+        <f>D61^2</f>
+        <v>22.159799396903811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>-2.4143575199847298</v>
+      </c>
+      <c r="C62">
+        <v>3.1567492026444399</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D70" si="9">B62-C62</f>
+        <v>-5.5711067226291693</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:E70" si="10">D62^2</f>
+        <v>31.037230114923922</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>-3.18942616313453</v>
+      </c>
+      <c r="C63">
+        <v>2.2509969332909199</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="9"/>
+        <v>-5.4404230964254499</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="10"/>
+        <v>29.598203468119479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>-3.2579575159363601</v>
+      </c>
+      <c r="C64">
+        <v>-0.86596151671317501</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="9"/>
+        <v>-2.3919959992231852</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="10"/>
+        <v>5.7216448602997243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>-1.9769621125339301</v>
+      </c>
+      <c r="C65">
+        <v>2.2956534305058298</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="9"/>
+        <v>-4.2726155430397599</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="10"/>
+        <v>18.255243578624942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>-3.7459694301011601</v>
+      </c>
+      <c r="C66">
+        <v>2.0304765325071901</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="9"/>
+        <v>-5.7764459626083502</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="10"/>
+        <v>33.367327958934311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>-3.2594613914328301</v>
+      </c>
+      <c r="C67">
+        <v>3.1701423801221198</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="9"/>
+        <v>-6.4296037715549499</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="10"/>
+        <v>41.339804659193639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>-1.81762826339114</v>
+      </c>
+      <c r="C68">
+        <v>2.8089779538187298</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="9"/>
+        <v>-4.6266062172098703</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="10"/>
+        <v>21.405485089125026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>-3.6589582954833899</v>
+      </c>
+      <c r="C69">
+        <v>2.28973608375138</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="9"/>
+        <v>-5.9486943792347695</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="10"/>
+        <v>35.386964817539337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>-3.7324338673885502</v>
+      </c>
+      <c r="C70">
+        <v>1.95944625883486</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="9"/>
+        <v>-5.6918801262234098</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="10"/>
+        <v>32.397499371297016</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>-1.48997447291656</v>
+      </c>
+      <c r="C73">
+        <v>-2.3994911828665999</v>
+      </c>
+      <c r="D73">
+        <f>B73-C73</f>
+        <v>0.90951670995003986</v>
+      </c>
+      <c r="E73">
+        <f>D73^2</f>
+        <v>0.82722064567834497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>-0.18923058732995801</v>
+      </c>
+      <c r="C74">
+        <v>-2.3663161083961102</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:D82" si="11">B74-C74</f>
+        <v>2.1770855210661519</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:E82" si="12">D74^2</f>
+        <v>4.7397013660358782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>-5.37381686695415</v>
+      </c>
+      <c r="C75">
+        <v>-4.9832417401573403</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="11"/>
+        <v>-0.39057512679680961</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="12"/>
+        <v>0.1525489296723439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>-2.71776797658748</v>
+      </c>
+      <c r="C76">
+        <v>-3.72270651417859</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="11"/>
+        <v>1.00493853759111</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="12"/>
+        <v>1.0099014643357587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>-10</v>
+      </c>
+      <c r="C77">
+        <v>-10</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>-5.2220070861728001</v>
+      </c>
+      <c r="C78">
+        <v>-7.9686564244399198</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="11"/>
+        <v>2.7466493382671198</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="12"/>
+        <v>7.5440825874032065</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>-1.22584832063654</v>
+      </c>
+      <c r="C79">
+        <v>-3.08111901060325</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="11"/>
+        <v>1.85527068996671</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="12"/>
+        <v>3.4420293330495522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>-10</v>
+      </c>
+      <c r="C80">
+        <v>-10</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>-2.2409195952792098</v>
+      </c>
+      <c r="C81">
+        <v>-2.9745464617483601</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="11"/>
+        <v>0.73362686646915032</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="12"/>
+        <v>0.53820837920534448</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>-5.0167805942909798</v>
+      </c>
+      <c r="C82">
+        <v>-8.2408236438599403</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="11"/>
+        <v>3.2240430495689605</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="12"/>
+        <v>10.394453585473922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87A251D-989D-41BA-A533-61B54CFA9382}">
+  <dimension ref="A12:H114"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1.1649534702301001</v>
+      </c>
+      <c r="D19">
+        <v>-5.2916111306662597</v>
+      </c>
+      <c r="E19">
+        <v>0.14327469204506399</v>
+      </c>
+      <c r="F19">
+        <v>-2.6935284978154601</v>
+      </c>
+      <c r="G19">
+        <v>-1.48997447291656</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1.0170973539352399</v>
+      </c>
+      <c r="D20">
+        <v>-3.7281885875022001</v>
+      </c>
+      <c r="E20">
+        <v>-1.02258132003219</v>
+      </c>
+      <c r="F20">
+        <v>-2.4143575199847298</v>
+      </c>
+      <c r="G20">
+        <v>-0.18923058732995801</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1.02004194259643</v>
+      </c>
+      <c r="D21">
+        <v>-5.9958246166256899</v>
+      </c>
+      <c r="E21">
+        <v>-0.37143362921144002</v>
+      </c>
+      <c r="F21">
+        <v>-3.18942616313453</v>
+      </c>
+      <c r="G21">
+        <v>-5.37381686695415</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>1.04181921482086</v>
+      </c>
+      <c r="D22">
+        <v>-5.9441518735413901</v>
+      </c>
+      <c r="E22">
+        <v>-0.48580712164574502</v>
+      </c>
+      <c r="F22">
+        <v>-3.2579575159363601</v>
+      </c>
+      <c r="G22">
+        <v>-2.71776797658748</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>1.03576695919036</v>
+      </c>
+      <c r="D23">
+        <v>-4.2420097201490199</v>
+      </c>
+      <c r="E23">
+        <v>0.26583182928548299</v>
+      </c>
+      <c r="F23">
+        <v>-1.9769621125339301</v>
+      </c>
+      <c r="G23">
+        <v>-10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>1.0438812971115099</v>
+      </c>
+      <c r="D24">
+        <v>-6.9908503438442597</v>
+      </c>
+      <c r="E24">
+        <v>-0.55445087467799203</v>
+      </c>
+      <c r="F24">
+        <v>-3.7459694301011601</v>
+      </c>
+      <c r="G24">
+        <v>-5.2220070861728001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1.01616966724395</v>
+      </c>
+      <c r="D25">
+        <v>-5.9730433287276101</v>
+      </c>
+      <c r="E25">
+        <v>-0.33239700981614401</v>
+      </c>
+      <c r="F25">
+        <v>-3.2594613914328301</v>
+      </c>
+      <c r="G25">
+        <v>-1.22584832063654</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>1.0349143743514999</v>
+      </c>
+      <c r="D26">
+        <v>-3.4719004254064001</v>
+      </c>
+      <c r="E26">
+        <v>-0.35472557975236202</v>
+      </c>
+      <c r="F26">
+        <v>-1.81762826339114</v>
+      </c>
+      <c r="G26">
+        <v>-10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>1.0950285196304299</v>
+      </c>
+      <c r="D27">
+        <v>-6.9235284935333397</v>
+      </c>
+      <c r="E27">
+        <v>-0.26534474525601198</v>
+      </c>
+      <c r="F27">
+        <v>-3.6589582954833899</v>
+      </c>
+      <c r="G27">
+        <v>-2.2409195952792098</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>1.1371163129806501</v>
+      </c>
+      <c r="D28">
+        <v>-6.8765971439813001</v>
+      </c>
+      <c r="E28">
+        <v>-0.74786358548941601</v>
+      </c>
+      <c r="F28">
+        <v>-3.7324338673885502</v>
+      </c>
+      <c r="G28">
+        <v>-5.0167805942909798</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1.1640433073043801</v>
+      </c>
+      <c r="D36">
+        <v>2.8916979225823898</v>
+      </c>
+      <c r="E36">
+        <v>1.8511949235684999</v>
+      </c>
+      <c r="F36">
+        <v>2.0138911134900601</v>
+      </c>
+      <c r="G36">
+        <v>-2.3994911828665999</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>2.4075438976287802</v>
+      </c>
+      <c r="D37">
+        <v>3.9031169936488301</v>
+      </c>
+      <c r="E37">
+        <v>2.4801029667692198</v>
+      </c>
+      <c r="F37">
+        <v>3.1567492026444399</v>
+      </c>
+      <c r="G37">
+        <v>-2.3663161083961102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>1.5966837406158401</v>
+      </c>
+      <c r="D38">
+        <v>3.1397316949916201</v>
+      </c>
+      <c r="E38">
+        <v>1.60438960539831</v>
+      </c>
+      <c r="F38">
+        <v>2.2509969332909199</v>
+      </c>
+      <c r="G38">
+        <v>-4.9832417401573403</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>1.0577983856201101</v>
+      </c>
+      <c r="D39">
+        <v>-1.3138012176971601</v>
+      </c>
+      <c r="E39">
+        <v>-0.31941855456554602</v>
+      </c>
+      <c r="F39">
+        <v>-0.86596151671317501</v>
+      </c>
+      <c r="G39">
+        <v>-3.72270651417859</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>1.2931698560714699</v>
+      </c>
+      <c r="D40">
+        <v>3.2966292493662399</v>
+      </c>
+      <c r="E40">
+        <v>1.4759323241504601</v>
+      </c>
+      <c r="F40">
+        <v>2.2956534305058298</v>
+      </c>
+      <c r="G40">
+        <v>-10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>1.1454170942306501</v>
+      </c>
+      <c r="D41">
+        <v>3.02388898522636</v>
+      </c>
+      <c r="E41">
+        <v>1.3810066075107801</v>
+      </c>
+      <c r="F41">
+        <v>2.0304765325071901</v>
+      </c>
+      <c r="G41">
+        <v>-7.9686564244399198</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>2.8621480464935298</v>
+      </c>
+      <c r="D42">
+        <v>3.6509302554121001</v>
+      </c>
+      <c r="E42">
+        <v>2.4006538171453098</v>
+      </c>
+      <c r="F42">
+        <v>3.1701423801221198</v>
+      </c>
+      <c r="G42">
+        <v>-3.08111901060325</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>2.0091447830200102</v>
+      </c>
+      <c r="D43">
+        <v>3.6275648656650601</v>
+      </c>
+      <c r="E43">
+        <v>1.7824127253167199</v>
+      </c>
+      <c r="F43">
+        <v>2.8089779538187298</v>
+      </c>
+      <c r="G43">
+        <v>-10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>1.4726384878158501</v>
+      </c>
+      <c r="D44">
+        <v>3.2431944555721901</v>
+      </c>
+      <c r="E44">
+        <v>1.8101458099247101</v>
+      </c>
+      <c r="F44">
+        <v>2.28973608375138</v>
+      </c>
+      <c r="G44">
+        <v>-2.9745464617483601</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>1.21473264694213</v>
+      </c>
+      <c r="D45">
+        <v>2.95094033927057</v>
+      </c>
+      <c r="E45">
+        <v>1.2034275853580401</v>
+      </c>
+      <c r="F45">
+        <v>1.95944625883486</v>
+      </c>
+      <c r="G45">
+        <v>-8.2408236438599403</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1.1649534702301001</v>
+      </c>
+      <c r="B53">
+        <v>1.1640433073043801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1.0170973539352399</v>
+      </c>
+      <c r="B54">
+        <v>2.4075438976287802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1.02004194259643</v>
+      </c>
+      <c r="B55">
+        <v>1.5966837406158401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1.04181921482086</v>
+      </c>
+      <c r="B56">
+        <v>1.0577983856201101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1.03576695919036</v>
+      </c>
+      <c r="B57">
+        <v>1.2931698560714699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1.0438812971115099</v>
+      </c>
+      <c r="B58">
+        <v>1.1454170942306501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1.01616966724395</v>
+      </c>
+      <c r="B59">
+        <v>2.8621480464935298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1.0349143743514999</v>
+      </c>
+      <c r="B60">
+        <v>2.0091447830200102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1.0950285196304299</v>
+      </c>
+      <c r="B61">
+        <v>1.4726384878158501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1.1371163129806501</v>
+      </c>
+      <c r="B62">
+        <v>1.21473264694213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>-5.2916111306662597</v>
+      </c>
+      <c r="B66">
+        <v>2.8916979225823898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>-3.7281885875022001</v>
+      </c>
+      <c r="B67">
+        <v>3.9031169936488301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>-5.9958246166256899</v>
+      </c>
+      <c r="B68">
+        <v>3.1397316949916201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>-5.9441518735413901</v>
+      </c>
+      <c r="B69">
+        <v>-1.3138012176971601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>-4.2420097201490199</v>
+      </c>
+      <c r="B70">
+        <v>3.2966292493662399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>-6.9908503438442597</v>
+      </c>
+      <c r="B71">
+        <v>3.02388898522636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>-5.9730433287276101</v>
+      </c>
+      <c r="B72">
+        <v>3.6509302554121001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>-3.4719004254064001</v>
+      </c>
+      <c r="B73">
+        <v>3.6275648656650601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>-6.9235284935333397</v>
+      </c>
+      <c r="B74">
+        <v>3.2431944555721901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>-6.8765971439813001</v>
+      </c>
+      <c r="B75">
+        <v>2.95094033927057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>0.14327469204506399</v>
+      </c>
+      <c r="B79">
+        <v>1.8511949235684999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>-1.02258132003219</v>
+      </c>
+      <c r="B80">
+        <v>2.4801029667692198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>-0.37143362921144002</v>
+      </c>
+      <c r="B81">
+        <v>1.60438960539831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>-0.48580712164574502</v>
+      </c>
+      <c r="B82">
+        <v>-0.31941855456554602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>0.26583182928548299</v>
+      </c>
+      <c r="B83">
+        <v>1.4759323241504601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>-0.55445087467799203</v>
+      </c>
+      <c r="B84">
+        <v>1.3810066075107801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>-0.33239700981614401</v>
+      </c>
+      <c r="B85">
+        <v>2.4006538171453098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>-0.35472557975236202</v>
+      </c>
+      <c r="B86">
+        <v>1.7824127253167199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>-0.26534474525601198</v>
+      </c>
+      <c r="B87">
+        <v>1.8101458099247101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>-0.74786358548941601</v>
+      </c>
+      <c r="B88">
+        <v>1.2034275853580401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>-2.6935284978154601</v>
+      </c>
+      <c r="B92">
+        <v>2.0138911134900601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>-2.4143575199847298</v>
+      </c>
+      <c r="B93">
+        <v>3.1567492026444399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>-3.18942616313453</v>
+      </c>
+      <c r="B94">
+        <v>2.2509969332909199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>-3.2579575159363601</v>
+      </c>
+      <c r="B95">
+        <v>-0.86596151671317501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>-1.9769621125339301</v>
+      </c>
+      <c r="B96">
+        <v>2.2956534305058298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>-3.7459694301011601</v>
+      </c>
+      <c r="B97">
+        <v>2.0304765325071901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>-3.2594613914328301</v>
+      </c>
+      <c r="B98">
+        <v>3.1701423801221198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>-1.81762826339114</v>
+      </c>
+      <c r="B99">
+        <v>2.8089779538187298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>-3.6589582954833899</v>
+      </c>
+      <c r="B100">
+        <v>2.28973608375138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>-3.7324338673885502</v>
+      </c>
+      <c r="B101">
+        <v>1.95944625883486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>-1.48997447291656</v>
+      </c>
+      <c r="B105">
+        <v>-2.3994911828665999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>-0.18923058732995801</v>
+      </c>
+      <c r="B106">
+        <v>-2.3663161083961102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>-5.37381686695415</v>
+      </c>
+      <c r="B107">
+        <v>-4.9832417401573403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>-2.71776797658748</v>
+      </c>
+      <c r="B108">
+        <v>-3.72270651417859</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>-10</v>
+      </c>
+      <c r="B109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>-5.2220070861728001</v>
+      </c>
+      <c r="B110">
+        <v>-7.9686564244399198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>-1.22584832063654</v>
+      </c>
+      <c r="B111">
+        <v>-3.08111901060325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>-10</v>
+      </c>
+      <c r="B112">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>-2.2409195952792098</v>
+      </c>
+      <c r="B113">
+        <v>-2.9745464617483601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>-5.0167805942909798</v>
+      </c>
+      <c r="B114">
+        <v>-8.2408236438599403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6D3160-676E-4D99-A806-0DF4ACB6D370}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>1.0606789112091031</v>
+      </c>
+      <c r="C4">
+        <v>1.6223320245742752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>2.8166453886886668E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.37300568531100747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>-0.53323508402890207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>-2.7724880542446448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>1.083259817628035E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>1.8331129326562374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>2.1665196352560701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
+        <f>T($B9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFD5B62-10BC-44E5-A034-A3214B9C7015}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>-5.5437705663977477</v>
+      </c>
+      <c r="C4">
+        <v>2.84138935440382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>1.7411423500770473</v>
+      </c>
+      <c r="C5">
+        <v>2.2413155571523742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>0.24627650612795246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>-15.285112262823949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>4.7890647389422331E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>1.8331129326562374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>9.5781294778844661E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4535BBB2-D32C-4D3C-A0AC-701EAD419904}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>-0.37254973445507539</v>
+      </c>
+      <c r="C4">
+        <v>1.5669847810576505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0.14403852963096667</v>
+      </c>
+      <c r="C5">
+        <v>0.6055633004517591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>-2.1718555776712254E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>-7.0242085153385494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>3.0790804997270274E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>1.8331129326562374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>6.1581609994540548E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11761D1F-096B-43ED-919F-19B38815687A}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>-2.9746683057202081</v>
+      </c>
+      <c r="C4">
+        <v>2.1110108372252352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0.50799941692256489</v>
+      </c>
+      <c r="C5">
+        <v>1.2988191545018455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>0.28954749004106994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>-13.911554798481678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>1.0831176341305306E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>1.8331129326562374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>2.1662352682610612E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93284C75-C92B-48CD-B610-6C1297F5B27B}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>-4.3476345500167684</v>
+      </c>
+      <c r="C4">
+        <v>-5.5736901086250112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>12.051401234584638</v>
+      </c>
+      <c r="C5">
+        <v>9.9044353526432971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>0.93557763515895676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>3.1521454705531422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>5.8485478832168659E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>1.8331129326562374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>1.1697095766433732E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>